--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N2">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O2">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P2">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q2">
-        <v>3717.194404912253</v>
+        <v>5018.162587332738</v>
       </c>
       <c r="R2">
-        <v>14868.77761964901</v>
+        <v>20072.65034933095</v>
       </c>
       <c r="S2">
-        <v>0.01118403300172317</v>
+        <v>0.009577017234257112</v>
       </c>
       <c r="T2">
-        <v>0.005719022010459517</v>
+        <v>0.005193523670789697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N3">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O3">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P3">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q3">
-        <v>28298.0568010204</v>
+        <v>55251.24850792705</v>
       </c>
       <c r="R3">
-        <v>169788.3408061224</v>
+        <v>331507.4910475623</v>
       </c>
       <c r="S3">
-        <v>0.08514120238882691</v>
+        <v>0.1054453995791895</v>
       </c>
       <c r="T3">
-        <v>0.06530619281751944</v>
+        <v>0.08577302806736752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N4">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O4">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P4">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q4">
-        <v>5416.069995109093</v>
+        <v>3027.048948166426</v>
       </c>
       <c r="R4">
-        <v>21664.27998043637</v>
+        <v>12108.1957926657</v>
       </c>
       <c r="S4">
-        <v>0.01629549035285731</v>
+        <v>0.005777034809256467</v>
       </c>
       <c r="T4">
-        <v>0.008332796226983843</v>
+        <v>0.003132830013245439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N5">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O5">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P5">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q5">
-        <v>3444.659527846709</v>
+        <v>130456.2865528438</v>
       </c>
       <c r="R5">
-        <v>20667.95716708025</v>
+        <v>782737.7193170626</v>
       </c>
       <c r="S5">
-        <v>0.01036404923784103</v>
+        <v>0.2489720256947359</v>
       </c>
       <c r="T5">
-        <v>0.007949577629943512</v>
+        <v>0.2025226765048794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N6">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O6">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P6">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q6">
-        <v>38096.75384692254</v>
+        <v>37267.47428307176</v>
       </c>
       <c r="R6">
-        <v>228580.5230815352</v>
+        <v>223604.8456984306</v>
       </c>
       <c r="S6">
-        <v>0.1146228326717187</v>
+        <v>0.07112388992480173</v>
       </c>
       <c r="T6">
-        <v>0.08791960416020456</v>
+        <v>0.0578546947626567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I7">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J7">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N7">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O7">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P7">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q7">
-        <v>7587.43764330224</v>
+        <v>5537.652928719347</v>
       </c>
       <c r="R7">
-        <v>45524.62585981344</v>
+        <v>33225.91757231608</v>
       </c>
       <c r="S7">
-        <v>0.02282854856584023</v>
+        <v>0.01056844942998716</v>
       </c>
       <c r="T7">
-        <v>0.01751027179034194</v>
+        <v>0.008596751619363635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N8">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O8">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P8">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q8">
-        <v>57761.23549541273</v>
+        <v>60970.96951136216</v>
       </c>
       <c r="R8">
-        <v>519851.1194587145</v>
+        <v>548738.7256022594</v>
       </c>
       <c r="S8">
-        <v>0.1737879415581035</v>
+        <v>0.1163613206303159</v>
       </c>
       <c r="T8">
-        <v>0.1999518770404873</v>
+        <v>0.1419786381417886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N9">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O9">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P9">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q9">
-        <v>11055.1369886237</v>
+        <v>3340.415178157946</v>
       </c>
       <c r="R9">
-        <v>66330.8219317422</v>
+        <v>20042.49106894767</v>
       </c>
       <c r="S9">
-        <v>0.03326191838552944</v>
+        <v>0.006375085138043864</v>
       </c>
       <c r="T9">
-        <v>0.02551302066003051</v>
+        <v>0.005185720369589376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N10">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O10">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P10">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q10">
-        <v>7031.146752885744</v>
+        <v>143961.3852135445</v>
       </c>
       <c r="R10">
-        <v>63280.3207759717</v>
+        <v>1295652.466921901</v>
       </c>
       <c r="S10">
-        <v>0.02115481967268515</v>
+        <v>0.2747461133957524</v>
       </c>
       <c r="T10">
-        <v>0.02433969735807131</v>
+        <v>0.3352323504354891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N11">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O11">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P11">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q11">
-        <v>77762.07341853644</v>
+        <v>41125.47860258105</v>
       </c>
       <c r="R11">
-        <v>699858.660766828</v>
+        <v>370129.3074232294</v>
       </c>
       <c r="S11">
-        <v>0.233965055539209</v>
+        <v>0.07848677887364656</v>
       </c>
       <c r="T11">
-        <v>0.2691887112392425</v>
+        <v>0.09576589468264265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H12">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I12">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J12">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N12">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O12">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P12">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q12">
-        <v>4.634670078761333</v>
+        <v>0.3196651344133334</v>
       </c>
       <c r="R12">
-        <v>27.808020472568</v>
+        <v>1.91799080648</v>
       </c>
       <c r="S12">
-        <v>1.394446926005994E-05</v>
+        <v>6.100716045342067E-07</v>
       </c>
       <c r="T12">
-        <v>1.069588134398902E-05</v>
+        <v>4.962538817970752E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H13">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I13">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J13">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N13">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O13">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P13">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q13">
-        <v>35.282566058278</v>
+        <v>3.519594567416889</v>
       </c>
       <c r="R13">
-        <v>317.543094524502</v>
+        <v>31.676351106752</v>
       </c>
       <c r="S13">
-        <v>0.0001061557024458542</v>
+        <v>6.717043787069754E-06</v>
       </c>
       <c r="T13">
-        <v>0.0001221375417206571</v>
+        <v>8.195822495490502E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N14">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O14">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P14">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q14">
-        <v>6.752861114188</v>
+        <v>0.1928279508786667</v>
       </c>
       <c r="R14">
-        <v>40.517166685128</v>
+        <v>1.156967705272</v>
       </c>
       <c r="S14">
-        <v>2.031753342179975E-05</v>
+        <v>3.680065316084236E-07</v>
       </c>
       <c r="T14">
-        <v>1.558423792467575E-05</v>
+        <v>2.993495656576137E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N15">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O15">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P15">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q15">
-        <v>4.294868308241777</v>
+        <v>8.310278045045333</v>
       </c>
       <c r="R15">
-        <v>38.653814774176</v>
+        <v>74.792502405408</v>
       </c>
       <c r="S15">
-        <v>1.292209759972586E-05</v>
+        <v>1.585992376169107E-05</v>
       </c>
       <c r="T15">
-        <v>1.486753135574544E-05</v>
+        <v>1.935153678662215E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N16">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O16">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P16">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q16">
-        <v>47.49977158012955</v>
+        <v>2.373998842926222</v>
       </c>
       <c r="R16">
-        <v>427.4979442211661</v>
+        <v>21.365989586336</v>
       </c>
       <c r="S16">
-        <v>0.0001429139708766515</v>
+        <v>4.530707691736121E-06</v>
       </c>
       <c r="T16">
-        <v>0.000164429801491964</v>
+        <v>5.528157504630711E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H17">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I17">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J17">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N17">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O17">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P17">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q17">
-        <v>788.434702089852</v>
+        <v>814.0291108285001</v>
       </c>
       <c r="R17">
-        <v>3153.738808359408</v>
+        <v>3256.116443314</v>
       </c>
       <c r="S17">
-        <v>0.002372186861204757</v>
+        <v>0.001553550864069405</v>
       </c>
       <c r="T17">
-        <v>0.001213031906295575</v>
+        <v>0.0008424755838863339</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H18">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I18">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J18">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N18">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O18">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P18">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q18">
-        <v>6002.153116918003</v>
+        <v>8962.667891352266</v>
       </c>
       <c r="R18">
-        <v>36012.91870150801</v>
+        <v>53776.0073481136</v>
       </c>
       <c r="S18">
-        <v>0.01805885601578892</v>
+        <v>0.01710499079425543</v>
       </c>
       <c r="T18">
-        <v>0.01385175567106742</v>
+        <v>0.01391380621006521</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H19">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I19">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J19">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N19">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O19">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P19">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q19">
-        <v>1148.774335678692</v>
+        <v>491.0374904811499</v>
       </c>
       <c r="R19">
-        <v>4595.097342714768</v>
+        <v>1964.1499619246</v>
       </c>
       <c r="S19">
-        <v>0.003456351398997221</v>
+        <v>0.0009371307579541595</v>
       </c>
       <c r="T19">
-        <v>0.001767425911896189</v>
+        <v>0.0005081969317806654</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N20">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O20">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P20">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q20">
-        <v>730.6287519021758</v>
+        <v>21162.1710330124</v>
       </c>
       <c r="R20">
-        <v>4383.772511413055</v>
+        <v>126973.0261980744</v>
       </c>
       <c r="S20">
-        <v>0.002198264385226481</v>
+        <v>0.040387387449154</v>
       </c>
       <c r="T20">
-        <v>0.001686143415615256</v>
+        <v>0.03285253345398305</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N21">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O21">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P21">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q21">
-        <v>8080.503599756666</v>
+        <v>6045.401763197467</v>
       </c>
       <c r="R21">
-        <v>48483.02159854</v>
+        <v>36272.41057918481</v>
       </c>
       <c r="S21">
-        <v>0.02431205072589008</v>
+        <v>0.01153747330154241</v>
       </c>
       <c r="T21">
-        <v>0.01864816831272103</v>
+        <v>0.009384990006856662</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H22">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I22">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J22">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N22">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O22">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P22">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q22">
-        <v>3527.616502151235</v>
+        <v>10.78488146379</v>
       </c>
       <c r="R22">
-        <v>21165.69901290741</v>
+        <v>64.70928878274</v>
       </c>
       <c r="S22">
-        <v>0.01061364434567796</v>
+        <v>2.058263235807913E-05</v>
       </c>
       <c r="T22">
-        <v>0.008141025551529915</v>
+        <v>1.674264320677155E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H23">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I23">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J23">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N23">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O23">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P23">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q23">
-        <v>26854.84838193417</v>
+        <v>118.744292460464</v>
       </c>
       <c r="R23">
-        <v>241693.6354374076</v>
+        <v>1068.698632144176</v>
       </c>
       <c r="S23">
-        <v>0.08079897843462774</v>
+        <v>0.0002266200258704622</v>
       </c>
       <c r="T23">
-        <v>0.0929633394360458</v>
+        <v>0.0002765111505649451</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H24">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I24">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J24">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N24">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O24">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P24">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q24">
-        <v>5139.848985650242</v>
+        <v>6.505640963781</v>
       </c>
       <c r="R24">
-        <v>30839.09391390145</v>
+        <v>39.03384578268599</v>
       </c>
       <c r="S24">
-        <v>0.01546441601316858</v>
+        <v>1.241582641967285E-05</v>
       </c>
       <c r="T24">
-        <v>0.0118617321065559</v>
+        <v>1.009947358750716E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H25">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I25">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J25">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N25">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O25">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P25">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q25">
-        <v>3268.980976261686</v>
+        <v>280.372658755656</v>
       </c>
       <c r="R25">
-        <v>29420.82878635518</v>
+        <v>2523.353928800904</v>
       </c>
       <c r="S25">
-        <v>0.009835479971723184</v>
+        <v>0.0005350830584276888</v>
       </c>
       <c r="T25">
-        <v>0.01131622058647065</v>
+        <v>0.000652883307930708</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N26">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O26">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P26">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q26">
-        <v>36153.80927379016</v>
+        <v>80.094115246952</v>
       </c>
       <c r="R26">
-        <v>325384.2834641114</v>
+        <v>720.847037222568</v>
       </c>
       <c r="S26">
-        <v>0.1087770377362385</v>
+        <v>0.0001528572876492519</v>
       </c>
       <c r="T26">
-        <v>0.1251535214656589</v>
+        <v>0.0001865093092182922</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H27">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I27">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J27">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N27">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O27">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P27">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q27">
-        <v>18.938764487752</v>
+        <v>0.8047758105333334</v>
       </c>
       <c r="R27">
-        <v>113.632586926512</v>
+        <v>4.8286548632</v>
       </c>
       <c r="S27">
-        <v>5.698162215109684E-05</v>
+        <v>1.535891209791908E-06</v>
       </c>
       <c r="T27">
-        <v>4.370683874371626E-05</v>
+        <v>1.249348386668772E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H28">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I28">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J28">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N28">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O28">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P28">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q28">
-        <v>144.176003414652</v>
+        <v>8.86078669774222</v>
       </c>
       <c r="R28">
-        <v>1297.584030731868</v>
+        <v>79.74708027967999</v>
       </c>
       <c r="S28">
-        <v>0.0004337866155493916</v>
+        <v>1.691055350170674E-05</v>
       </c>
       <c r="T28">
-        <v>0.0004990935920898862</v>
+        <v>2.063346602969592E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H29">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I29">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J29">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N29">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O29">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P29">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q29">
-        <v>27.594379769592</v>
+        <v>0.4854557277466666</v>
       </c>
       <c r="R29">
-        <v>165.566278617552</v>
+        <v>2.91273436648</v>
       </c>
       <c r="S29">
-        <v>8.302402844396953E-05</v>
+        <v>9.26478126243776E-07</v>
       </c>
       <c r="T29">
-        <v>6.368224852272722E-05</v>
+        <v>7.536301691988931E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H30">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I30">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J30">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N30">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O30">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P30">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q30">
-        <v>17.55022429070933</v>
+        <v>20.92161461941333</v>
       </c>
       <c r="R30">
-        <v>157.952018616384</v>
+        <v>188.29453157472</v>
       </c>
       <c r="S30">
-        <v>5.280388009719127E-05</v>
+        <v>3.992829253567613E-05</v>
       </c>
       <c r="T30">
-        <v>6.075355312798977E-05</v>
+        <v>4.871863405153975E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H31">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I31">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J31">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N31">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O31">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P31">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q31">
-        <v>194.0994659577827</v>
+        <v>5.976681962915555</v>
       </c>
       <c r="R31">
-        <v>1746.895193620044</v>
+        <v>53.79013766624</v>
       </c>
       <c r="S31">
-        <v>0.0005839928172763751</v>
+        <v>1.140632356293174E-05</v>
       </c>
       <c r="T31">
-        <v>0.0006719134765373406</v>
+        <v>1.391746223656834E-05</v>
       </c>
     </row>
   </sheetData>
